--- a/data-raw/hti2202_zmpap_basic_info.xlsx
+++ b/data-raw/hti2202_zmpap_basic_info.xlsx
@@ -1,21 +1,158 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guillaume.noblet\Documents\GitHub\HTI.MSNA.2022\data-raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8371F9-1122-4F1B-A1A8-33ADDE9B4484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+  <si>
+    <t>stratum_zmpap</t>
+  </si>
+  <si>
+    <t>admin3_name</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>start_name</t>
+  </si>
+  <si>
+    <t>end_name</t>
+  </si>
+  <si>
+    <t>zmpap_carrefour</t>
+  </si>
+  <si>
+    <t>Carrefour</t>
+  </si>
+  <si>
+    <t>2022-09-02</t>
+  </si>
+  <si>
+    <t>02 sept.</t>
+  </si>
+  <si>
+    <t>zmpap_cite_soleil</t>
+  </si>
+  <si>
+    <t>Cite Soleil</t>
+  </si>
+  <si>
+    <t>2022-08-09</t>
+  </si>
+  <si>
+    <t>2022-09-13</t>
+  </si>
+  <si>
+    <t>09 août</t>
+  </si>
+  <si>
+    <t>13 sept.</t>
+  </si>
+  <si>
+    <t>zmpap_croix_des_bouquets</t>
+  </si>
+  <si>
+    <t>Croix-Des-Bouquets</t>
+  </si>
+  <si>
+    <t>zmpap_delmas</t>
+  </si>
+  <si>
+    <t>Delmas</t>
+  </si>
+  <si>
+    <t>2022-09-09</t>
+  </si>
+  <si>
+    <t>09 sept.</t>
+  </si>
+  <si>
+    <t>zmpap_petion_ville</t>
+  </si>
+  <si>
+    <t>Petion-Ville</t>
+  </si>
+  <si>
+    <t>2022-08-10</t>
+  </si>
+  <si>
+    <t>2022-09-12</t>
+  </si>
+  <si>
+    <t>10 août</t>
+  </si>
+  <si>
+    <t>12 sept.</t>
+  </si>
+  <si>
+    <t>zmpap_port_au_prince</t>
+  </si>
+  <si>
+    <t>Port-au-Prince</t>
+  </si>
+  <si>
+    <t>2022-09-08</t>
+  </si>
+  <si>
+    <t>08 sept.</t>
+  </si>
+  <si>
+    <t>zmpap_tabarre</t>
+  </si>
+  <si>
+    <t>Tabarre</t>
+  </si>
+  <si>
+    <t>zmpap_thomazeau</t>
+  </si>
+  <si>
+    <t>Thomazeau</t>
+  </si>
+  <si>
+    <t>2022-08-17</t>
+  </si>
+  <si>
+    <t>2022-08-26</t>
+  </si>
+  <si>
+    <t>17 août</t>
+  </si>
+  <si>
+    <t>26 août</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +200,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -109,7 +254,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +286,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +338,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,357 +531,247 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>stratum_zmpap</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>admin3_name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>start</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>duration</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>start_name</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>end_name</t>
-        </is>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>zmpap_carrefour</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Carrefour</t>
-        </is>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
       </c>
       <c r="C2">
         <v>159</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2022-07-21</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2022-09-02</t>
-        </is>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
       </c>
       <c r="F2">
         <v>43</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>21 juil.</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>02 sept.</t>
-        </is>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>zmpap_cite_soleil</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Cite Soleil</t>
-        </is>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
       </c>
       <c r="C3">
         <v>187</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2022-08-09</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2022-09-13</t>
-        </is>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
       </c>
       <c r="F3">
         <v>35</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>09 août</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>13 sept.</t>
-        </is>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>zmpap_croix_des_bouquets</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Croix-Des-Bouquets</t>
-        </is>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
       </c>
       <c r="C4">
         <v>123</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2022-08-09</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2022-09-13</t>
-        </is>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
       </c>
       <c r="F4">
         <v>35</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>09 août</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>13 sept.</t>
-        </is>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>zmpap_delmas</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Delmas</t>
-        </is>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
       </c>
       <c r="C5">
         <v>138</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2022-08-09</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2022-09-09</t>
-        </is>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
       </c>
       <c r="F5">
         <v>31</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>09 août</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>09 sept.</t>
-        </is>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>zmpap_petion_ville</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Petion-Ville</t>
-        </is>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
       </c>
       <c r="C6">
         <v>171</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2022-08-10</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2022-09-12</t>
-        </is>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
       </c>
       <c r="F6">
         <v>33</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>10 août</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>12 sept.</t>
-        </is>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>zmpap_port_au_prince</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Port-au-Prince</t>
-        </is>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
       </c>
       <c r="C7">
         <v>188</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2022-08-10</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2022-09-08</t>
-        </is>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
       </c>
       <c r="F7">
         <v>29</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>10 août</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>08 sept.</t>
-        </is>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>zmpap_tabarre</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Tabarre</t>
-        </is>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
       </c>
       <c r="C8">
         <v>186</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2022-08-09</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2022-09-13</t>
-        </is>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
       </c>
       <c r="F8">
         <v>35</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>09 août</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>13 sept.</t>
-        </is>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>zmpap_thomazeau</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Thomazeau</t>
-        </is>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
       </c>
       <c r="C9">
         <v>36</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2022-08-17</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2022-08-26</t>
-        </is>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
       </c>
       <c r="F9">
         <v>9</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>17 août</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>26 août</t>
-        </is>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -709,6 +780,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005CE36845BBC7E045BADC55076FCBCE54" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="27aa45bcac1adb63bfdead15146c781d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fe61be33-cbaf-4c94-b58a-a34d929eaf4f" xmlns:ns3="b9a2b066-db03-45e9-a911-ef9f0be93d4e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9d3c0232fc52c0a9373531ed307af7be" ns2:_="" ns3:_="">
     <xsd:import namespace="fe61be33-cbaf-4c94-b58a-a34d929eaf4f"/>
@@ -945,19 +1025,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51133B15-B7B7-4B8B-9412-0AAF306E6703}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3420B5AD-1654-49BB-91A7-5A5C592CCCD2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3420B5AD-1654-49BB-91A7-5A5C592CCCD2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51133B15-B7B7-4B8B-9412-0AAF306E6703}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="fe61be33-cbaf-4c94-b58a-a34d929eaf4f"/>
+    <ds:schemaRef ds:uri="b9a2b066-db03-45e9-a911-ef9f0be93d4e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>